--- a/templates/template-recycling-center.xlsx
+++ b/templates/template-recycling-center.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="656">
   <si>
     <t>Empresa</t>
   </si>
@@ -107,1450 +107,1447 @@
     <t>RAEE</t>
   </si>
   <si>
-    <t>Recimetal Panamá (Casa matriz)</t>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Materiales</t>
+  </si>
+  <si>
+    <t>Bocas del Toro</t>
+  </si>
+  <si>
+    <t>Bocas Del Toro</t>
+  </si>
+  <si>
+    <t>Bocas del Toro cabecera</t>
+  </si>
+  <si>
+    <t>Periódicos</t>
+  </si>
+  <si>
+    <t>Coclé</t>
+  </si>
+  <si>
+    <t>Changuinola</t>
+  </si>
+  <si>
+    <t>Bastimentos</t>
+  </si>
+  <si>
+    <t>Directorios / Guías Telefónicas</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>Chiriquí Grande</t>
+  </si>
+  <si>
+    <t>Punta Laurel</t>
+  </si>
+  <si>
+    <t>Revista</t>
+  </si>
+  <si>
+    <t>Chiriquí</t>
+  </si>
+  <si>
+    <t>Almirante</t>
+  </si>
+  <si>
+    <t>Cauchero</t>
+  </si>
+  <si>
+    <t>Papel Blanco (bond)</t>
+  </si>
+  <si>
+    <t>Darién</t>
+  </si>
+  <si>
+    <t>Aguadulce</t>
+  </si>
+  <si>
+    <t>Tierra Oscura</t>
+  </si>
+  <si>
+    <t>Papel de Color</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Antón</t>
+  </si>
+  <si>
+    <t>Changuinola cabecera</t>
+  </si>
+  <si>
+    <t>Papel Mixto, Caribe, Mezclado</t>
+  </si>
+  <si>
+    <t>Los Santos</t>
+  </si>
+  <si>
+    <t>La Pintada</t>
+  </si>
+  <si>
+    <t>Guabito</t>
+  </si>
+  <si>
+    <t>Plástico 1 (PET)</t>
   </si>
   <si>
     <t>Panamá</t>
   </si>
   <si>
+    <t>Natá</t>
+  </si>
+  <si>
+    <t>El Teribe</t>
+  </si>
+  <si>
+    <t>Plástico 2 (HDPE)</t>
+  </si>
+  <si>
+    <t>Panamá Oeste</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>El Empalme</t>
+  </si>
+  <si>
+    <t>Plástico 5 (PP)</t>
+  </si>
+  <si>
+    <t>Veraguas</t>
+  </si>
+  <si>
+    <t>Penonomé</t>
+  </si>
+  <si>
+    <t>Las Tablas</t>
+  </si>
+  <si>
+    <t>5 Polipropileno (PP)</t>
+  </si>
+  <si>
+    <t>Las Delicias</t>
+  </si>
+  <si>
+    <t>Plástico 3 (PVC)</t>
+  </si>
+  <si>
+    <t>Chagres</t>
+  </si>
+  <si>
+    <t>Cochigró</t>
+  </si>
+  <si>
+    <t>Plástico 6 (PS)</t>
+  </si>
+  <si>
+    <t>Donoso</t>
+  </si>
+  <si>
+    <t>La Gloria</t>
+  </si>
+  <si>
+    <t>Cartón</t>
+  </si>
+  <si>
+    <t>Portobelo</t>
+  </si>
+  <si>
+    <t>Barriada 4 de abril</t>
+  </si>
+  <si>
+    <t>Botellas de Amor</t>
+  </si>
+  <si>
+    <t>Santa Isabel</t>
+  </si>
+  <si>
+    <t>Finca 30</t>
+  </si>
+  <si>
+    <t>EcoBricks</t>
+  </si>
+  <si>
+    <t>Omar Torrijos Herrera</t>
+  </si>
+  <si>
+    <t>Finca 6</t>
+  </si>
+  <si>
+    <t>Latas</t>
+  </si>
+  <si>
+    <t>Alanje</t>
+  </si>
+  <si>
+    <t>Finca 60</t>
+  </si>
+  <si>
+    <t>Hojalata (latas de conserva)</t>
+  </si>
+  <si>
+    <t>Barú</t>
+  </si>
+  <si>
+    <t>El Silencio</t>
+  </si>
+  <si>
+    <t>Hierro</t>
+  </si>
+  <si>
+    <t>Boquerón</t>
+  </si>
+  <si>
+    <t>Chiriquí Grande cabecera</t>
+  </si>
+  <si>
+    <t>Bronce</t>
+  </si>
+  <si>
+    <t>Boquete</t>
+  </si>
+  <si>
+    <t>Punta Róbalo</t>
+  </si>
+  <si>
+    <t>Cobre</t>
+  </si>
+  <si>
+    <t>Bugaba</t>
+  </si>
+  <si>
+    <t>Miramar</t>
+  </si>
+  <si>
+    <t>Acero inoxidable</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Punta Peña</t>
+  </si>
+  <si>
+    <t>Chatarra</t>
+  </si>
+  <si>
+    <t>Dolega</t>
+  </si>
+  <si>
+    <t>Rambala</t>
+  </si>
+  <si>
+    <t>TetraPak</t>
+  </si>
+  <si>
+    <t>Gualaca</t>
+  </si>
+  <si>
+    <t>Bajo Cedro</t>
+  </si>
+  <si>
+    <t>Vidrio Verde</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Almirante cabecera</t>
+  </si>
+  <si>
+    <t>Vidrio Ámbar\/Chocolate</t>
+  </si>
+  <si>
+    <t>Renacimiento</t>
+  </si>
+  <si>
+    <t>Valle de agua arriba</t>
+  </si>
+  <si>
+    <t>Vidrio Transparente</t>
+  </si>
+  <si>
+    <t>San Félix</t>
+  </si>
+  <si>
+    <t>Valle del Risco</t>
+  </si>
+  <si>
+    <t>Vidrio Plano</t>
+  </si>
+  <si>
+    <t>Tierras Altas</t>
+  </si>
+  <si>
+    <t>Nance de Riscó</t>
+  </si>
+  <si>
+    <t>Espejos</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Barrio Francés</t>
+  </si>
+  <si>
+    <t>Pallets de Madera</t>
+  </si>
+  <si>
+    <t>Tolé</t>
+  </si>
+  <si>
+    <t>Barriada Guaymí</t>
+  </si>
+  <si>
+    <t>Llantas de caucho</t>
+  </si>
+  <si>
+    <t>Chepigana</t>
+  </si>
+  <si>
+    <t>Residuos orgánicos</t>
+  </si>
+  <si>
+    <t>Pinogana</t>
+  </si>
+  <si>
+    <t>El Cristo</t>
+  </si>
+  <si>
+    <t>Residuos de construcción y demolición</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>El Roble</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Chitré</t>
+  </si>
+  <si>
+    <t>Pocrí</t>
+  </si>
+  <si>
+    <t>Residuos voluminiosos</t>
+  </si>
+  <si>
+    <t>Las Minas</t>
+  </si>
+  <si>
+    <t>Barrios Unidos</t>
+  </si>
+  <si>
+    <t>Aceite de cocina</t>
+  </si>
+  <si>
+    <t>Los Pozos</t>
+  </si>
+  <si>
+    <t>Pueblos Unidos</t>
+  </si>
+  <si>
+    <t>Aceite de motor</t>
+  </si>
+  <si>
+    <t>Ocú</t>
+  </si>
+  <si>
+    <t>Virgen del Carmen</t>
+  </si>
+  <si>
+    <t>Envases de plaguicidas</t>
+  </si>
+  <si>
+    <t>Parita</t>
+  </si>
+  <si>
+    <t>El Hato de San Juan de Dios</t>
+  </si>
+  <si>
+    <t>Cartuchos de tintas y tóner</t>
+  </si>
+  <si>
+    <t>Santa María</t>
+  </si>
+  <si>
+    <t>Envases de aerosoles</t>
+  </si>
+  <si>
+    <t>Pesé</t>
+  </si>
+  <si>
+    <t>Cabuya</t>
+  </si>
+  <si>
+    <t>Alcalinas</t>
+  </si>
+  <si>
+    <t>Guararé</t>
+  </si>
+  <si>
+    <t>El Chirú</t>
+  </si>
+  <si>
+    <t>Litio</t>
+  </si>
+  <si>
+    <t>El Retiro</t>
+  </si>
+  <si>
+    <t>Ácido de gel</t>
+  </si>
+  <si>
+    <t>El Valle</t>
+  </si>
+  <si>
+    <t>Ácido en líquido</t>
+  </si>
+  <si>
+    <t>Macaracas</t>
+  </si>
+  <si>
+    <t>Juan Díaz</t>
+  </si>
+  <si>
+    <t>Lámparas y bombillas</t>
+  </si>
+  <si>
+    <t>Pedasí</t>
+  </si>
+  <si>
+    <t>Río Hato</t>
+  </si>
+  <si>
+    <t>Paneles fotovoltaicos</t>
+  </si>
+  <si>
+    <t>San Juan de Dios</t>
+  </si>
+  <si>
+    <t>Monitores de pantalla plana y similares</t>
+  </si>
+  <si>
+    <t>Tonosí</t>
+  </si>
+  <si>
+    <t>Santa Rita</t>
+  </si>
+  <si>
+    <t>Monitores con tubos de rayos catódicos</t>
+  </si>
+  <si>
+    <t>Balboa</t>
+  </si>
+  <si>
+    <t>Caballero</t>
+  </si>
+  <si>
+    <t>Televisores</t>
+  </si>
+  <si>
+    <t>Chimán</t>
+  </si>
+  <si>
+    <t>Lavadoras</t>
+  </si>
+  <si>
+    <t>Chepo</t>
+  </si>
+  <si>
+    <t>El Harino</t>
+  </si>
+  <si>
+    <t>Calentadores</t>
+  </si>
+  <si>
+    <t>Taboga</t>
+  </si>
+  <si>
+    <t>El Potrero</t>
+  </si>
+  <si>
+    <t>Bicicletas eléctricas</t>
+  </si>
+  <si>
+    <t>Llano Grande</t>
+  </si>
+  <si>
+    <t>Copiadoras</t>
+  </si>
+  <si>
+    <t>San Miguelito</t>
+  </si>
+  <si>
+    <t>Piedras Gordas</t>
+  </si>
+  <si>
+    <t>Aparatos médicos y de laboratorio (grandes)</t>
+  </si>
+  <si>
+    <t>Arraiján</t>
+  </si>
+  <si>
+    <t>Las Lomas</t>
+  </si>
+  <si>
+    <t>Contadores</t>
+  </si>
+  <si>
+    <t>Capira</t>
+  </si>
+  <si>
+    <t>Llano Norte</t>
+  </si>
+  <si>
+    <t>Celulares</t>
+  </si>
+  <si>
+    <t>Chame</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>San Carlos</t>
+  </si>
+  <si>
+    <t>Capellanía</t>
+  </si>
+  <si>
+    <t>Computadoras</t>
+  </si>
+  <si>
+    <t>La Chorrera</t>
+  </si>
+  <si>
+    <t>El Caño</t>
+  </si>
+  <si>
+    <t>Impresoras</t>
+  </si>
+  <si>
+    <t>Atalaya</t>
+  </si>
+  <si>
+    <t>Guzmán</t>
+  </si>
+  <si>
+    <t>Microondas</t>
+  </si>
+  <si>
+    <t>Calobre</t>
+  </si>
+  <si>
+    <t>Las Huacas</t>
+  </si>
+  <si>
+    <t>Consolas de juego</t>
+  </si>
+  <si>
+    <t>Cañazas</t>
+  </si>
+  <si>
+    <t>Toza</t>
+  </si>
+  <si>
+    <t>Aires acondiconados</t>
+  </si>
+  <si>
+    <t>La Mesa</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Refrigerados</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Olá</t>
+  </si>
+  <si>
+    <t>Compresores</t>
+  </si>
+  <si>
+    <t>Mariato</t>
+  </si>
+  <si>
+    <t>El Copé</t>
+  </si>
+  <si>
+    <t>Congeladores</t>
+  </si>
+  <si>
+    <t>Montijo</t>
+  </si>
+  <si>
+    <t>El Palmar</t>
+  </si>
+  <si>
+    <t>Radiadores</t>
+  </si>
+  <si>
+    <t>Río De Jesús</t>
+  </si>
+  <si>
+    <t>El Picacho</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>La Pava</t>
+  </si>
+  <si>
+    <t>Santa Fé</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Cañaveral</t>
+  </si>
+  <si>
+    <t>Soná</t>
+  </si>
+  <si>
+    <t>Chiguirí Arriba</t>
+  </si>
+  <si>
+    <t>El Coco</t>
+  </si>
+  <si>
+    <t>Pajonal</t>
+  </si>
+  <si>
+    <t>Río Grande</t>
+  </si>
+  <si>
+    <t>Río Indio</t>
+  </si>
+  <si>
+    <t>Toabré</t>
+  </si>
+  <si>
+    <t>Tulú</t>
+  </si>
+  <si>
+    <t>Barrio Norte</t>
+  </si>
+  <si>
+    <t>Barrio Sur</t>
+  </si>
+  <si>
+    <t>Buena Vista</t>
+  </si>
+  <si>
+    <t>Cativá</t>
+  </si>
+  <si>
+    <t>Ciricito</t>
+  </si>
+  <si>
+    <t>Cristóbal</t>
+  </si>
+  <si>
+    <t>Escobal</t>
+  </si>
+  <si>
+    <t>Limón</t>
+  </si>
+  <si>
+    <t>Nueva Providencia</t>
+  </si>
+  <si>
+    <t>Puerto Pilón</t>
+  </si>
+  <si>
+    <t>Sabanitas</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Cristóbal Este</t>
+  </si>
+  <si>
+    <t>Nuevo Chagres</t>
+  </si>
+  <si>
+    <t>Achiote</t>
+  </si>
+  <si>
+    <t>Guabo</t>
+  </si>
+  <si>
+    <t>La Encantada</t>
+  </si>
+  <si>
+    <t>Palmas Bellas</t>
+  </si>
+  <si>
+    <t>Piña</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Miguel de la Borda</t>
+  </si>
+  <si>
+    <t>Coclé del Norte</t>
+  </si>
+  <si>
+    <t>El Guásimo</t>
+  </si>
+  <si>
+    <t>Gobea</t>
+  </si>
+  <si>
+    <t>Cacique</t>
+  </si>
+  <si>
+    <t>Garrote</t>
+  </si>
+  <si>
+    <t>Isla Grande</t>
+  </si>
+  <si>
+    <t>María Chiquita</t>
+  </si>
+  <si>
+    <t>Palenque</t>
+  </si>
+  <si>
+    <t>Cuango</t>
+  </si>
+  <si>
+    <t>Nombre de Dios</t>
+  </si>
+  <si>
+    <t>Palmira</t>
+  </si>
+  <si>
+    <t>Playa Chiquita</t>
+  </si>
+  <si>
+    <t>Viento Frío</t>
+  </si>
+  <si>
+    <t>San José del General</t>
+  </si>
+  <si>
+    <t>San Juan de Turbe</t>
+  </si>
+  <si>
+    <t>Nueva Esperanza</t>
+  </si>
+  <si>
+    <t>Divalá</t>
+  </si>
+  <si>
+    <t>El Tejar</t>
+  </si>
+  <si>
+    <t>Guarumal</t>
+  </si>
+  <si>
+    <t>Palo Grande</t>
+  </si>
+  <si>
+    <t>Querévalo</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Canta Gallo</t>
+  </si>
+  <si>
+    <t>Nuevo México</t>
+  </si>
+  <si>
+    <t>Puerto Armuelles</t>
+  </si>
+  <si>
+    <t>Limones</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <t>Baco</t>
+  </si>
+  <si>
+    <t>Rodolfo Aguilar Delgado</t>
+  </si>
+  <si>
+    <t>Bágala</t>
+  </si>
+  <si>
+    <t>Cordillera</t>
+  </si>
+  <si>
+    <t>Guabal</t>
+  </si>
+  <si>
+    <t>Guayabal</t>
+  </si>
+  <si>
+    <t>Paraíso</t>
+  </si>
+  <si>
+    <t>Pedregal</t>
+  </si>
+  <si>
+    <t>Tijeras</t>
+  </si>
+  <si>
+    <t>Bajo Boquete</t>
+  </si>
+  <si>
+    <t>Caldera</t>
+  </si>
+  <si>
+    <t>Alto Boquete</t>
+  </si>
+  <si>
+    <t>Jaramillo</t>
+  </si>
+  <si>
+    <t>Los Naranjos</t>
+  </si>
+  <si>
+    <t>La Concepción</t>
+  </si>
+  <si>
+    <t>Aserrío de Gariché</t>
+  </si>
+  <si>
+    <t>El Bongo</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>La Estrella</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Sortová</t>
+  </si>
+  <si>
+    <t>Solano</t>
+  </si>
+  <si>
+    <t>San Isidro</t>
+  </si>
+  <si>
+    <t>Bijagual</t>
+  </si>
+  <si>
+    <t>Cochea</t>
+  </si>
+  <si>
+    <t>Guacá</t>
+  </si>
+  <si>
+    <t>San Pablo Nuevo</t>
+  </si>
+  <si>
+    <t>San Pablo Viejo</t>
+  </si>
+  <si>
+    <t>David Este</t>
+  </si>
+  <si>
+    <t>David Sur</t>
+  </si>
+  <si>
+    <t>Dos Ríos</t>
+  </si>
+  <si>
+    <t>Los Anastacios</t>
+  </si>
+  <si>
+    <t>Potrerillos</t>
+  </si>
+  <si>
+    <t>Potrerillos Abajo</t>
+  </si>
+  <si>
+    <t>Rovira</t>
+  </si>
+  <si>
+    <t>Tinajas</t>
+  </si>
+  <si>
+    <t>Los Algarrobos</t>
+  </si>
+  <si>
+    <t>Hornito</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Paja de Sombrero</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>El Nancito</t>
+  </si>
+  <si>
+    <t>El Porvenir</t>
+  </si>
+  <si>
+    <t>El Puerto</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>Río Sereno</t>
+  </si>
+  <si>
+    <t>Breñón</t>
+  </si>
+  <si>
+    <t>Cañas Gordas</t>
+  </si>
+  <si>
+    <t>Monte Lirio</t>
+  </si>
+  <si>
+    <t>Plaza de Caisán</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Dominical</t>
+  </si>
+  <si>
+    <t>Las Lajas</t>
+  </si>
+  <si>
+    <t>Juay</t>
+  </si>
+  <si>
+    <t>Lajas Adentro</t>
+  </si>
+  <si>
+    <t>Cuesta de piedra</t>
+  </si>
+  <si>
+    <t>Paso Ancho</t>
+  </si>
+  <si>
+    <t>Nueva California</t>
+  </si>
+  <si>
+    <t>Volcán</t>
+  </si>
+  <si>
+    <t>Cerro Punta</t>
+  </si>
+  <si>
+    <t>Horconcitos</t>
+  </si>
+  <si>
+    <t>Boca Chica</t>
+  </si>
+  <si>
+    <t>Boca Del Monte</t>
+  </si>
+  <si>
+    <t>Cerro Viejo</t>
+  </si>
+  <si>
+    <t>Lajas de Tolé</t>
+  </si>
+  <si>
+    <t>Potrero de Caña</t>
+  </si>
+  <si>
+    <t>Quebrada de Piedra</t>
+  </si>
+  <si>
+    <t>Bella Vista</t>
+  </si>
+  <si>
+    <t>Justo Fidel Palacios</t>
+  </si>
+  <si>
+    <t>Veladero</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>Camogantí</t>
+  </si>
+  <si>
+    <t>Garachiné</t>
+  </si>
+  <si>
+    <t>Jaqué</t>
+  </si>
+  <si>
+    <t>Puerto Piña</t>
+  </si>
+  <si>
+    <t>Sambú</t>
+  </si>
+  <si>
+    <t>Setegantí</t>
+  </si>
+  <si>
+    <t>Taimatí</t>
+  </si>
+  <si>
+    <t>Tucutí</t>
+  </si>
+  <si>
+    <t>El Real S.M.</t>
+  </si>
+  <si>
+    <t>Boca de Cupe</t>
+  </si>
+  <si>
+    <t>Paya</t>
+  </si>
+  <si>
+    <t>2Púcuro</t>
+  </si>
+  <si>
+    <t>Yape</t>
+  </si>
+  <si>
+    <t>Yaviza</t>
+  </si>
+  <si>
+    <t>Metetí</t>
+  </si>
+  <si>
+    <t>Río Congo</t>
+  </si>
+  <si>
+    <t>Río Iglesias</t>
+  </si>
+  <si>
+    <t>Agua Fría</t>
+  </si>
+  <si>
+    <t>Cucunatí</t>
+  </si>
+  <si>
+    <t>Río Congo Arriba</t>
+  </si>
+  <si>
+    <t>Zapallal</t>
+  </si>
+  <si>
+    <t>La Arena</t>
+  </si>
+  <si>
+    <t>Monagrillo</t>
+  </si>
+  <si>
+    <t>San Juan Bautista</t>
+  </si>
+  <si>
+    <t>Llano Bonito</t>
+  </si>
+  <si>
+    <t>Chumical</t>
+  </si>
+  <si>
+    <t>El Toro</t>
+  </si>
+  <si>
+    <t>Leones</t>
+  </si>
+  <si>
+    <t>Quebrada Del Rosario</t>
+  </si>
+  <si>
+    <t>El Ciprián</t>
+  </si>
+  <si>
+    <t>Capurí</t>
+  </si>
+  <si>
+    <t>El Calabacito</t>
+  </si>
+  <si>
+    <t>El Cedro</t>
+  </si>
+  <si>
+    <t>La Pitaloza</t>
+  </si>
+  <si>
+    <t>Los Cerritos</t>
+  </si>
+  <si>
+    <t>Los Cerros de Paja</t>
+  </si>
+  <si>
+    <t>Las Llanas</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>Los Llanos</t>
+  </si>
+  <si>
+    <t>Peñas Chatas</t>
+  </si>
+  <si>
+    <t>El Tijera</t>
+  </si>
+  <si>
+    <t>Menchaca</t>
+  </si>
+  <si>
+    <t>Entradero del Castillo</t>
+  </si>
+  <si>
+    <t>Los Castillos</t>
+  </si>
+  <si>
+    <t>Llano De la Cruz</t>
+  </si>
+  <si>
+    <t>París</t>
+  </si>
+  <si>
+    <t>Portobelillo</t>
+  </si>
+  <si>
+    <t>Potuga</t>
+  </si>
+  <si>
+    <t>Chupampa</t>
+  </si>
+  <si>
+    <t>El Rincón</t>
+  </si>
+  <si>
+    <t>El Limón</t>
+  </si>
+  <si>
+    <t>Los Canelos</t>
+  </si>
+  <si>
+    <t>Las Cabras</t>
+  </si>
+  <si>
+    <t>El Pájaro</t>
+  </si>
+  <si>
+    <t>El Barrero</t>
+  </si>
+  <si>
+    <t>El Pedregoso</t>
+  </si>
+  <si>
+    <t>El Ciruelo</t>
+  </si>
+  <si>
+    <t>Sábana Grande</t>
+  </si>
+  <si>
+    <t>Rincón Hondo</t>
+  </si>
+  <si>
+    <t>El Espinal</t>
+  </si>
+  <si>
+    <t>El Macano</t>
+  </si>
+  <si>
+    <t>Guararé Arriba</t>
+  </si>
+  <si>
+    <t>La Enea</t>
+  </si>
+  <si>
+    <t>La Pasera</t>
+  </si>
+  <si>
+    <t>Las Trancas</t>
+  </si>
+  <si>
+    <t>Llano Abajo</t>
+  </si>
+  <si>
+    <t>El Hato</t>
+  </si>
+  <si>
+    <t>Perales</t>
+  </si>
+  <si>
+    <t>Bajo Corral</t>
+  </si>
+  <si>
+    <t>Bayano</t>
+  </si>
+  <si>
+    <t>Carate</t>
+  </si>
+  <si>
+    <t>El Cocal</t>
+  </si>
+  <si>
+    <t>El Manantial</t>
+  </si>
+  <si>
+    <t>El Muñoz</t>
+  </si>
+  <si>
+    <t>La Laja</t>
+  </si>
+  <si>
+    <t>La Miel</t>
+  </si>
+  <si>
+    <t>La Tiza</t>
+  </si>
+  <si>
+    <t>Las Palmitas</t>
+  </si>
+  <si>
+    <t>Las Tablas Abajo</t>
+  </si>
+  <si>
+    <t>Nuario</t>
+  </si>
+  <si>
+    <t>Peña Blanca</t>
+  </si>
+  <si>
+    <t>Río Hondo</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>El Sesteadero</t>
+  </si>
+  <si>
+    <t>Valle Rico</t>
+  </si>
+  <si>
+    <t>Vallerriquito</t>
+  </si>
+  <si>
+    <t>La Villa de Los Santos</t>
+  </si>
+  <si>
+    <t>La Colorada</t>
+  </si>
+  <si>
+    <t>La Espigadilla</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>Las Guabas</t>
+  </si>
+  <si>
+    <t>Los Olivos</t>
+  </si>
+  <si>
+    <t>Llano Largo</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Tres Quebradas</t>
+  </si>
+  <si>
+    <t>Villa Lourdes</t>
+  </si>
+  <si>
+    <t>Agua Buena</t>
+  </si>
+  <si>
+    <t>El Ejido</t>
+  </si>
+  <si>
+    <t>Bahía Honda</t>
+  </si>
+  <si>
+    <t>Bajos de Güera</t>
+  </si>
+  <si>
+    <t>Corozal</t>
+  </si>
+  <si>
+    <t>Chupá</t>
+  </si>
+  <si>
+    <t>Espino Amarillo</t>
+  </si>
+  <si>
+    <t>Llano de Piedra</t>
+  </si>
+  <si>
+    <t>Mogollón</t>
+  </si>
+  <si>
+    <t>Los Asientos</t>
+  </si>
+  <si>
+    <t>Mariabé</t>
+  </si>
+  <si>
+    <t>Púrio</t>
+  </si>
+  <si>
+    <t>Oria Arriba</t>
+  </si>
+  <si>
+    <t>El Cañafístulo</t>
+  </si>
+  <si>
+    <t>Lajaminas</t>
+  </si>
+  <si>
+    <t>Paritilla</t>
+  </si>
+  <si>
+    <t>Altos de Güera</t>
+  </si>
+  <si>
+    <t>Cañas</t>
+  </si>
+  <si>
+    <t>El Bebedero</t>
+  </si>
+  <si>
+    <t>El Cacao</t>
+  </si>
+  <si>
+    <t>El Cortezo</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Guánico</t>
+  </si>
+  <si>
+    <t>La Tronosa</t>
+  </si>
+  <si>
+    <t>Cambutal</t>
+  </si>
+  <si>
+    <t>Isla De Cañas</t>
+  </si>
+  <si>
+    <t>La Ensenada</t>
+  </si>
+  <si>
+    <t>La Esmeralda</t>
+  </si>
+  <si>
+    <t>La Guinea</t>
+  </si>
+  <si>
+    <t>Pedro González</t>
+  </si>
+  <si>
+    <t>Saboga</t>
+  </si>
+  <si>
+    <t>Brujas</t>
+  </si>
+  <si>
+    <t>Gonzalo Vásquez</t>
+  </si>
+  <si>
+    <t>Unión Santeña</t>
+  </si>
+  <si>
+    <t>Pásiga</t>
+  </si>
+  <si>
+    <t>Cañita</t>
+  </si>
+  <si>
+    <t>Chepillo</t>
+  </si>
+  <si>
+    <t>El Llano</t>
+  </si>
+  <si>
+    <t>Las Margaritas</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Chinina</t>
+  </si>
+  <si>
+    <t>Tortí</t>
+  </si>
+  <si>
+    <t>Otoque Occidente</t>
+  </si>
+  <si>
+    <t>Otoque Oriente</t>
+  </si>
+  <si>
+    <t>San Felipe</t>
+  </si>
+  <si>
+    <t>El Chorrillo</t>
+  </si>
+  <si>
+    <t>Calidonia</t>
+  </si>
+  <si>
     <t>Curundú</t>
-  </si>
-  <si>
-    <t>Horas</t>
-  </si>
-  <si>
-    <t>Materiales</t>
-  </si>
-  <si>
-    <t>Bocas del Toro</t>
-  </si>
-  <si>
-    <t>Bocas Del Toro</t>
-  </si>
-  <si>
-    <t>Bocas del Toro cabecera</t>
-  </si>
-  <si>
-    <t>Periódicos</t>
-  </si>
-  <si>
-    <t>Coclé</t>
-  </si>
-  <si>
-    <t>Changuinola</t>
-  </si>
-  <si>
-    <t>Bastimentos</t>
-  </si>
-  <si>
-    <t>Directorios / Guías Telefónicas</t>
-  </si>
-  <si>
-    <t>Colón</t>
-  </si>
-  <si>
-    <t>Chiriquí Grande</t>
-  </si>
-  <si>
-    <t>Punta Laurel</t>
-  </si>
-  <si>
-    <t>Revista</t>
-  </si>
-  <si>
-    <t>Chiriquí</t>
-  </si>
-  <si>
-    <t>Almirante</t>
-  </si>
-  <si>
-    <t>Cauchero</t>
-  </si>
-  <si>
-    <t>Papel Blanco (bond)</t>
-  </si>
-  <si>
-    <t>Darién</t>
-  </si>
-  <si>
-    <t>Aguadulce</t>
-  </si>
-  <si>
-    <t>Tierra Oscura</t>
-  </si>
-  <si>
-    <t>Papel de Color</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>Antón</t>
-  </si>
-  <si>
-    <t>Changuinola cabecera</t>
-  </si>
-  <si>
-    <t>Papel Mixto, Caribe, Mezclado</t>
-  </si>
-  <si>
-    <t>Los Santos</t>
-  </si>
-  <si>
-    <t>La Pintada</t>
-  </si>
-  <si>
-    <t>Guabito</t>
-  </si>
-  <si>
-    <t>Plástico 1 (PET)</t>
-  </si>
-  <si>
-    <t>Natá</t>
-  </si>
-  <si>
-    <t>El Teribe</t>
-  </si>
-  <si>
-    <t>Plástico 2 (HDPE)</t>
-  </si>
-  <si>
-    <t>Panamá Oeste</t>
-  </si>
-  <si>
-    <t>Ola</t>
-  </si>
-  <si>
-    <t>El Empalme</t>
-  </si>
-  <si>
-    <t>Plástico 5 (PP)</t>
-  </si>
-  <si>
-    <t>Veraguas</t>
-  </si>
-  <si>
-    <t>Penonomé</t>
-  </si>
-  <si>
-    <t>Las Tablas</t>
-  </si>
-  <si>
-    <t>5 Polipropileno (PP)</t>
-  </si>
-  <si>
-    <t>Las Delicias</t>
-  </si>
-  <si>
-    <t>Plástico 3 (PVC)</t>
-  </si>
-  <si>
-    <t>Chagres</t>
-  </si>
-  <si>
-    <t>Cochigró</t>
-  </si>
-  <si>
-    <t>Plástico 6 (PS)</t>
-  </si>
-  <si>
-    <t>Donoso</t>
-  </si>
-  <si>
-    <t>La Gloria</t>
-  </si>
-  <si>
-    <t>Cartón</t>
-  </si>
-  <si>
-    <t>Portobelo</t>
-  </si>
-  <si>
-    <t>Barriada 4 de abril</t>
-  </si>
-  <si>
-    <t>Botellas de Amor</t>
-  </si>
-  <si>
-    <t>Santa Isabel</t>
-  </si>
-  <si>
-    <t>Finca 30</t>
-  </si>
-  <si>
-    <t>EcoBricks</t>
-  </si>
-  <si>
-    <t>Omar Torrijos Herrera</t>
-  </si>
-  <si>
-    <t>Finca 6</t>
-  </si>
-  <si>
-    <t>Latas</t>
-  </si>
-  <si>
-    <t>Alanje</t>
-  </si>
-  <si>
-    <t>Finca 60</t>
-  </si>
-  <si>
-    <t>Hojalata (latas de conserva)</t>
-  </si>
-  <si>
-    <t>Barú</t>
-  </si>
-  <si>
-    <t>El Silencio</t>
-  </si>
-  <si>
-    <t>Hierro</t>
-  </si>
-  <si>
-    <t>Boquerón</t>
-  </si>
-  <si>
-    <t>Chiriquí Grande cabecera</t>
-  </si>
-  <si>
-    <t>Bronce</t>
-  </si>
-  <si>
-    <t>Boquete</t>
-  </si>
-  <si>
-    <t>Punta Róbalo</t>
-  </si>
-  <si>
-    <t>Cobre</t>
-  </si>
-  <si>
-    <t>Bugaba</t>
-  </si>
-  <si>
-    <t>Miramar</t>
-  </si>
-  <si>
-    <t>Acero inoxidable</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Punta Peña</t>
-  </si>
-  <si>
-    <t>Chatarra</t>
-  </si>
-  <si>
-    <t>Dolega</t>
-  </si>
-  <si>
-    <t>Rambala</t>
-  </si>
-  <si>
-    <t>TetraPak</t>
-  </si>
-  <si>
-    <t>Gualaca</t>
-  </si>
-  <si>
-    <t>Bajo Cedro</t>
-  </si>
-  <si>
-    <t>Vidrio Verde</t>
-  </si>
-  <si>
-    <t>Remedios</t>
-  </si>
-  <si>
-    <t>Almirante cabecera</t>
-  </si>
-  <si>
-    <t>Vidrio Ámbar\/Chocolate</t>
-  </si>
-  <si>
-    <t>Renacimiento</t>
-  </si>
-  <si>
-    <t>Valle de agua arriba</t>
-  </si>
-  <si>
-    <t>Vidrio Transparente</t>
-  </si>
-  <si>
-    <t>San Félix</t>
-  </si>
-  <si>
-    <t>Valle del Risco</t>
-  </si>
-  <si>
-    <t>Vidrio Plano</t>
-  </si>
-  <si>
-    <t>Tierras Altas</t>
-  </si>
-  <si>
-    <t>Nance de Riscó</t>
-  </si>
-  <si>
-    <t>Espejos</t>
-  </si>
-  <si>
-    <t>San Lorenzo</t>
-  </si>
-  <si>
-    <t>Barrio Francés</t>
-  </si>
-  <si>
-    <t>Pallets de Madera</t>
-  </si>
-  <si>
-    <t>Tolé</t>
-  </si>
-  <si>
-    <t>Barriada Guaymí</t>
-  </si>
-  <si>
-    <t>Llantas de caucho</t>
-  </si>
-  <si>
-    <t>Chepigana</t>
-  </si>
-  <si>
-    <t>Residuos orgánicos</t>
-  </si>
-  <si>
-    <t>Pinogana</t>
-  </si>
-  <si>
-    <t>El Cristo</t>
-  </si>
-  <si>
-    <t>Residuos de construcción y demolición</t>
-  </si>
-  <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>El Roble</t>
-  </si>
-  <si>
-    <t>Textiles</t>
-  </si>
-  <si>
-    <t>Chitré</t>
-  </si>
-  <si>
-    <t>Pocrí</t>
-  </si>
-  <si>
-    <t>Residuos voluminiosos</t>
-  </si>
-  <si>
-    <t>Las Minas</t>
-  </si>
-  <si>
-    <t>Barrios Unidos</t>
-  </si>
-  <si>
-    <t>Aceite de cocina</t>
-  </si>
-  <si>
-    <t>Los Pozos</t>
-  </si>
-  <si>
-    <t>Pueblos Unidos</t>
-  </si>
-  <si>
-    <t>Aceite de motor</t>
-  </si>
-  <si>
-    <t>Ocú</t>
-  </si>
-  <si>
-    <t>Virgen del Carmen</t>
-  </si>
-  <si>
-    <t>Envases de plaguicidas</t>
-  </si>
-  <si>
-    <t>Parita</t>
-  </si>
-  <si>
-    <t>El Hato de San Juan de Dios</t>
-  </si>
-  <si>
-    <t>Cartuchos de tintas y tóner</t>
-  </si>
-  <si>
-    <t>Santa María</t>
-  </si>
-  <si>
-    <t>Envases de aerosoles</t>
-  </si>
-  <si>
-    <t>Pesé</t>
-  </si>
-  <si>
-    <t>Cabuya</t>
-  </si>
-  <si>
-    <t>Alcalinas</t>
-  </si>
-  <si>
-    <t>Guararé</t>
-  </si>
-  <si>
-    <t>El Chirú</t>
-  </si>
-  <si>
-    <t>Litio</t>
-  </si>
-  <si>
-    <t>El Retiro</t>
-  </si>
-  <si>
-    <t>Ácido de gel</t>
-  </si>
-  <si>
-    <t>El Valle</t>
-  </si>
-  <si>
-    <t>Ácido en líquido</t>
-  </si>
-  <si>
-    <t>Macaracas</t>
-  </si>
-  <si>
-    <t>Juan Díaz</t>
-  </si>
-  <si>
-    <t>Lámparas y bombillas</t>
-  </si>
-  <si>
-    <t>Pedasí</t>
-  </si>
-  <si>
-    <t>Río Hato</t>
-  </si>
-  <si>
-    <t>Paneles fotovoltaicos</t>
-  </si>
-  <si>
-    <t>San Juan de Dios</t>
-  </si>
-  <si>
-    <t>Monitores de pantalla plana y similares</t>
-  </si>
-  <si>
-    <t>Tonosí</t>
-  </si>
-  <si>
-    <t>Santa Rita</t>
-  </si>
-  <si>
-    <t>Monitores con tubos de rayos catódicos</t>
-  </si>
-  <si>
-    <t>Balboa</t>
-  </si>
-  <si>
-    <t>Caballero</t>
-  </si>
-  <si>
-    <t>Televisores</t>
-  </si>
-  <si>
-    <t>Chimán</t>
-  </si>
-  <si>
-    <t>Lavadoras</t>
-  </si>
-  <si>
-    <t>Chepo</t>
-  </si>
-  <si>
-    <t>El Harino</t>
-  </si>
-  <si>
-    <t>Calentadores</t>
-  </si>
-  <si>
-    <t>Taboga</t>
-  </si>
-  <si>
-    <t>El Potrero</t>
-  </si>
-  <si>
-    <t>Bicicletas eléctricas</t>
-  </si>
-  <si>
-    <t>Llano Grande</t>
-  </si>
-  <si>
-    <t>Copiadoras</t>
-  </si>
-  <si>
-    <t>San Miguelito</t>
-  </si>
-  <si>
-    <t>Piedras Gordas</t>
-  </si>
-  <si>
-    <t>Aparatos médicos y de laboratorio (grandes)</t>
-  </si>
-  <si>
-    <t>Arraiján</t>
-  </si>
-  <si>
-    <t>Las Lomas</t>
-  </si>
-  <si>
-    <t>Contadores</t>
-  </si>
-  <si>
-    <t>Capira</t>
-  </si>
-  <si>
-    <t>Llano Norte</t>
-  </si>
-  <si>
-    <t>Celulares</t>
-  </si>
-  <si>
-    <t>Chame</t>
-  </si>
-  <si>
-    <t>Tablets</t>
-  </si>
-  <si>
-    <t>San Carlos</t>
-  </si>
-  <si>
-    <t>Capellanía</t>
-  </si>
-  <si>
-    <t>Computadoras</t>
-  </si>
-  <si>
-    <t>La Chorrera</t>
-  </si>
-  <si>
-    <t>El Caño</t>
-  </si>
-  <si>
-    <t>Impresoras</t>
-  </si>
-  <si>
-    <t>Atalaya</t>
-  </si>
-  <si>
-    <t>Guzmán</t>
-  </si>
-  <si>
-    <t>Microondas</t>
-  </si>
-  <si>
-    <t>Calobre</t>
-  </si>
-  <si>
-    <t>Las Huacas</t>
-  </si>
-  <si>
-    <t>Consolas de juego</t>
-  </si>
-  <si>
-    <t>Cañazas</t>
-  </si>
-  <si>
-    <t>Toza</t>
-  </si>
-  <si>
-    <t>Aires acondiconados</t>
-  </si>
-  <si>
-    <t>La Mesa</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Refrigerados</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Olá</t>
-  </si>
-  <si>
-    <t>Compresores</t>
-  </si>
-  <si>
-    <t>Mariato</t>
-  </si>
-  <si>
-    <t>El Copé</t>
-  </si>
-  <si>
-    <t>Congeladores</t>
-  </si>
-  <si>
-    <t>Montijo</t>
-  </si>
-  <si>
-    <t>El Palmar</t>
-  </si>
-  <si>
-    <t>Radiadores</t>
-  </si>
-  <si>
-    <t>Río De Jesús</t>
-  </si>
-  <si>
-    <t>El Picacho</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>La Pava</t>
-  </si>
-  <si>
-    <t>Santa Fé</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Cañaveral</t>
-  </si>
-  <si>
-    <t>Soná</t>
-  </si>
-  <si>
-    <t>Chiguirí Arriba</t>
-  </si>
-  <si>
-    <t>El Coco</t>
-  </si>
-  <si>
-    <t>Pajonal</t>
-  </si>
-  <si>
-    <t>Río Grande</t>
-  </si>
-  <si>
-    <t>Río Indio</t>
-  </si>
-  <si>
-    <t>Toabré</t>
-  </si>
-  <si>
-    <t>Tulú</t>
-  </si>
-  <si>
-    <t>Barrio Norte</t>
-  </si>
-  <si>
-    <t>Barrio Sur</t>
-  </si>
-  <si>
-    <t>Buena Vista</t>
-  </si>
-  <si>
-    <t>Cativá</t>
-  </si>
-  <si>
-    <t>Ciricito</t>
-  </si>
-  <si>
-    <t>Cristóbal</t>
-  </si>
-  <si>
-    <t>Escobal</t>
-  </si>
-  <si>
-    <t>Limón</t>
-  </si>
-  <si>
-    <t>Nueva Providencia</t>
-  </si>
-  <si>
-    <t>Puerto Pilón</t>
-  </si>
-  <si>
-    <t>Sabanitas</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>Cristóbal Este</t>
-  </si>
-  <si>
-    <t>Nuevo Chagres</t>
-  </si>
-  <si>
-    <t>Achiote</t>
-  </si>
-  <si>
-    <t>Guabo</t>
-  </si>
-  <si>
-    <t>La Encantada</t>
-  </si>
-  <si>
-    <t>Palmas Bellas</t>
-  </si>
-  <si>
-    <t>Piña</t>
-  </si>
-  <si>
-    <t>Salud</t>
-  </si>
-  <si>
-    <t>Miguel de la Borda</t>
-  </si>
-  <si>
-    <t>Coclé del Norte</t>
-  </si>
-  <si>
-    <t>El Guásimo</t>
-  </si>
-  <si>
-    <t>Gobea</t>
-  </si>
-  <si>
-    <t>Cacique</t>
-  </si>
-  <si>
-    <t>Garrote</t>
-  </si>
-  <si>
-    <t>Isla Grande</t>
-  </si>
-  <si>
-    <t>María Chiquita</t>
-  </si>
-  <si>
-    <t>Palenque</t>
-  </si>
-  <si>
-    <t>Cuango</t>
-  </si>
-  <si>
-    <t>Nombre de Dios</t>
-  </si>
-  <si>
-    <t>Palmira</t>
-  </si>
-  <si>
-    <t>Playa Chiquita</t>
-  </si>
-  <si>
-    <t>Viento Frío</t>
-  </si>
-  <si>
-    <t>San José del General</t>
-  </si>
-  <si>
-    <t>San Juan de Turbe</t>
-  </si>
-  <si>
-    <t>Nueva Esperanza</t>
-  </si>
-  <si>
-    <t>Divalá</t>
-  </si>
-  <si>
-    <t>El Tejar</t>
-  </si>
-  <si>
-    <t>Guarumal</t>
-  </si>
-  <si>
-    <t>Palo Grande</t>
-  </si>
-  <si>
-    <t>Querévalo</t>
-  </si>
-  <si>
-    <t>Santo Tomás</t>
-  </si>
-  <si>
-    <t>Canta Gallo</t>
-  </si>
-  <si>
-    <t>Nuevo México</t>
-  </si>
-  <si>
-    <t>Puerto Armuelles</t>
-  </si>
-  <si>
-    <t>Limones</t>
-  </si>
-  <si>
-    <t>Progreso</t>
-  </si>
-  <si>
-    <t>Baco</t>
-  </si>
-  <si>
-    <t>Rodolfo Aguilar Delgado</t>
-  </si>
-  <si>
-    <t>Bágala</t>
-  </si>
-  <si>
-    <t>Cordillera</t>
-  </si>
-  <si>
-    <t>Guabal</t>
-  </si>
-  <si>
-    <t>Guayabal</t>
-  </si>
-  <si>
-    <t>Paraíso</t>
-  </si>
-  <si>
-    <t>Pedregal</t>
-  </si>
-  <si>
-    <t>Tijeras</t>
-  </si>
-  <si>
-    <t>Bajo Boquete</t>
-  </si>
-  <si>
-    <t>Caldera</t>
-  </si>
-  <si>
-    <t>Alto Boquete</t>
-  </si>
-  <si>
-    <t>Jaramillo</t>
-  </si>
-  <si>
-    <t>Los Naranjos</t>
-  </si>
-  <si>
-    <t>La Concepción</t>
-  </si>
-  <si>
-    <t>Aserrío de Gariché</t>
-  </si>
-  <si>
-    <t>El Bongo</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>La Estrella</t>
-  </si>
-  <si>
-    <t>San Andrés</t>
-  </si>
-  <si>
-    <t>Santa Marta</t>
-  </si>
-  <si>
-    <t>Santo Domingo</t>
-  </si>
-  <si>
-    <t>Sortová</t>
-  </si>
-  <si>
-    <t>Solano</t>
-  </si>
-  <si>
-    <t>San Isidro</t>
-  </si>
-  <si>
-    <t>Bijagual</t>
-  </si>
-  <si>
-    <t>Cochea</t>
-  </si>
-  <si>
-    <t>Guacá</t>
-  </si>
-  <si>
-    <t>San Pablo Nuevo</t>
-  </si>
-  <si>
-    <t>San Pablo Viejo</t>
-  </si>
-  <si>
-    <t>David Este</t>
-  </si>
-  <si>
-    <t>David Sur</t>
-  </si>
-  <si>
-    <t>Dos Ríos</t>
-  </si>
-  <si>
-    <t>Los Anastacios</t>
-  </si>
-  <si>
-    <t>Potrerillos</t>
-  </si>
-  <si>
-    <t>Potrerillos Abajo</t>
-  </si>
-  <si>
-    <t>Rovira</t>
-  </si>
-  <si>
-    <t>Tinajas</t>
-  </si>
-  <si>
-    <t>Los Algarrobos</t>
-  </si>
-  <si>
-    <t>Hornito</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Paja de Sombrero</t>
-  </si>
-  <si>
-    <t>Rincón</t>
-  </si>
-  <si>
-    <t>El Nancito</t>
-  </si>
-  <si>
-    <t>El Porvenir</t>
-  </si>
-  <si>
-    <t>El Puerto</t>
-  </si>
-  <si>
-    <t>Santa Lucía</t>
-  </si>
-  <si>
-    <t>Río Sereno</t>
-  </si>
-  <si>
-    <t>Breñón</t>
-  </si>
-  <si>
-    <t>Cañas Gordas</t>
-  </si>
-  <si>
-    <t>Monte Lirio</t>
-  </si>
-  <si>
-    <t>Plaza de Caisán</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Dominical</t>
-  </si>
-  <si>
-    <t>Las Lajas</t>
-  </si>
-  <si>
-    <t>Juay</t>
-  </si>
-  <si>
-    <t>Lajas Adentro</t>
-  </si>
-  <si>
-    <t>Cuesta de piedra</t>
-  </si>
-  <si>
-    <t>Paso Ancho</t>
-  </si>
-  <si>
-    <t>Nueva California</t>
-  </si>
-  <si>
-    <t>Volcán</t>
-  </si>
-  <si>
-    <t>Cerro Punta</t>
-  </si>
-  <si>
-    <t>Horconcitos</t>
-  </si>
-  <si>
-    <t>Boca Chica</t>
-  </si>
-  <si>
-    <t>Boca Del Monte</t>
-  </si>
-  <si>
-    <t>Cerro Viejo</t>
-  </si>
-  <si>
-    <t>Lajas de Tolé</t>
-  </si>
-  <si>
-    <t>Potrero de Caña</t>
-  </si>
-  <si>
-    <t>Quebrada de Piedra</t>
-  </si>
-  <si>
-    <t>Bella Vista</t>
-  </si>
-  <si>
-    <t>Justo Fidel Palacios</t>
-  </si>
-  <si>
-    <t>Veladero</t>
-  </si>
-  <si>
-    <t>La Palma</t>
-  </si>
-  <si>
-    <t>Camogantí</t>
-  </si>
-  <si>
-    <t>Garachiné</t>
-  </si>
-  <si>
-    <t>Jaqué</t>
-  </si>
-  <si>
-    <t>Puerto Piña</t>
-  </si>
-  <si>
-    <t>Sambú</t>
-  </si>
-  <si>
-    <t>Setegantí</t>
-  </si>
-  <si>
-    <t>Taimatí</t>
-  </si>
-  <si>
-    <t>Tucutí</t>
-  </si>
-  <si>
-    <t>El Real S.M.</t>
-  </si>
-  <si>
-    <t>Boca de Cupe</t>
-  </si>
-  <si>
-    <t>Paya</t>
-  </si>
-  <si>
-    <t>2Púcuro</t>
-  </si>
-  <si>
-    <t>Yape</t>
-  </si>
-  <si>
-    <t>Yaviza</t>
-  </si>
-  <si>
-    <t>Metetí</t>
-  </si>
-  <si>
-    <t>Río Congo</t>
-  </si>
-  <si>
-    <t>Río Iglesias</t>
-  </si>
-  <si>
-    <t>Agua Fría</t>
-  </si>
-  <si>
-    <t>Cucunatí</t>
-  </si>
-  <si>
-    <t>Río Congo Arriba</t>
-  </si>
-  <si>
-    <t>Zapallal</t>
-  </si>
-  <si>
-    <t>La Arena</t>
-  </si>
-  <si>
-    <t>Monagrillo</t>
-  </si>
-  <si>
-    <t>San Juan Bautista</t>
-  </si>
-  <si>
-    <t>Llano Bonito</t>
-  </si>
-  <si>
-    <t>Chumical</t>
-  </si>
-  <si>
-    <t>El Toro</t>
-  </si>
-  <si>
-    <t>Leones</t>
-  </si>
-  <si>
-    <t>Quebrada Del Rosario</t>
-  </si>
-  <si>
-    <t>El Ciprián</t>
-  </si>
-  <si>
-    <t>Capurí</t>
-  </si>
-  <si>
-    <t>El Calabacito</t>
-  </si>
-  <si>
-    <t>El Cedro</t>
-  </si>
-  <si>
-    <t>La Pitaloza</t>
-  </si>
-  <si>
-    <t>Los Cerritos</t>
-  </si>
-  <si>
-    <t>Los Cerros de Paja</t>
-  </si>
-  <si>
-    <t>Las Llanas</t>
-  </si>
-  <si>
-    <t>Cerro Largo</t>
-  </si>
-  <si>
-    <t>Los Llanos</t>
-  </si>
-  <si>
-    <t>Peñas Chatas</t>
-  </si>
-  <si>
-    <t>El Tijera</t>
-  </si>
-  <si>
-    <t>Menchaca</t>
-  </si>
-  <si>
-    <t>Entradero del Castillo</t>
-  </si>
-  <si>
-    <t>Los Castillos</t>
-  </si>
-  <si>
-    <t>Llano De la Cruz</t>
-  </si>
-  <si>
-    <t>París</t>
-  </si>
-  <si>
-    <t>Portobelillo</t>
-  </si>
-  <si>
-    <t>Potuga</t>
-  </si>
-  <si>
-    <t>Chupampa</t>
-  </si>
-  <si>
-    <t>El Rincón</t>
-  </si>
-  <si>
-    <t>El Limón</t>
-  </si>
-  <si>
-    <t>Los Canelos</t>
-  </si>
-  <si>
-    <t>Las Cabras</t>
-  </si>
-  <si>
-    <t>El Pájaro</t>
-  </si>
-  <si>
-    <t>El Barrero</t>
-  </si>
-  <si>
-    <t>El Pedregoso</t>
-  </si>
-  <si>
-    <t>El Ciruelo</t>
-  </si>
-  <si>
-    <t>Sábana Grande</t>
-  </si>
-  <si>
-    <t>Rincón Hondo</t>
-  </si>
-  <si>
-    <t>El Espinal</t>
-  </si>
-  <si>
-    <t>El Macano</t>
-  </si>
-  <si>
-    <t>Guararé Arriba</t>
-  </si>
-  <si>
-    <t>La Enea</t>
-  </si>
-  <si>
-    <t>La Pasera</t>
-  </si>
-  <si>
-    <t>Las Trancas</t>
-  </si>
-  <si>
-    <t>Llano Abajo</t>
-  </si>
-  <si>
-    <t>El Hato</t>
-  </si>
-  <si>
-    <t>Perales</t>
-  </si>
-  <si>
-    <t>Bajo Corral</t>
-  </si>
-  <si>
-    <t>Bayano</t>
-  </si>
-  <si>
-    <t>Carate</t>
-  </si>
-  <si>
-    <t>El Cocal</t>
-  </si>
-  <si>
-    <t>El Manantial</t>
-  </si>
-  <si>
-    <t>El Muñoz</t>
-  </si>
-  <si>
-    <t>La Laja</t>
-  </si>
-  <si>
-    <t>La Miel</t>
-  </si>
-  <si>
-    <t>La Tiza</t>
-  </si>
-  <si>
-    <t>Las Palmitas</t>
-  </si>
-  <si>
-    <t>Las Tablas Abajo</t>
-  </si>
-  <si>
-    <t>Nuario</t>
-  </si>
-  <si>
-    <t>Peña Blanca</t>
-  </si>
-  <si>
-    <t>Río Hondo</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>San Miguel</t>
-  </si>
-  <si>
-    <t>El Sesteadero</t>
-  </si>
-  <si>
-    <t>Valle Rico</t>
-  </si>
-  <si>
-    <t>Vallerriquito</t>
-  </si>
-  <si>
-    <t>La Villa de Los Santos</t>
-  </si>
-  <si>
-    <t>La Colorada</t>
-  </si>
-  <si>
-    <t>La Espigadilla</t>
-  </si>
-  <si>
-    <t>Las Cruces</t>
-  </si>
-  <si>
-    <t>Las Guabas</t>
-  </si>
-  <si>
-    <t>Los Olivos</t>
-  </si>
-  <si>
-    <t>Llano Largo</t>
-  </si>
-  <si>
-    <t>Santa Ana</t>
-  </si>
-  <si>
-    <t>Tres Quebradas</t>
-  </si>
-  <si>
-    <t>Villa Lourdes</t>
-  </si>
-  <si>
-    <t>Agua Buena</t>
-  </si>
-  <si>
-    <t>El Ejido</t>
-  </si>
-  <si>
-    <t>Bahía Honda</t>
-  </si>
-  <si>
-    <t>Bajos de Güera</t>
-  </si>
-  <si>
-    <t>Corozal</t>
-  </si>
-  <si>
-    <t>Chupá</t>
-  </si>
-  <si>
-    <t>Espino Amarillo</t>
-  </si>
-  <si>
-    <t>Llano de Piedra</t>
-  </si>
-  <si>
-    <t>Mogollón</t>
-  </si>
-  <si>
-    <t>Los Asientos</t>
-  </si>
-  <si>
-    <t>Mariabé</t>
-  </si>
-  <si>
-    <t>Púrio</t>
-  </si>
-  <si>
-    <t>Oria Arriba</t>
-  </si>
-  <si>
-    <t>El Cañafístulo</t>
-  </si>
-  <si>
-    <t>Lajaminas</t>
-  </si>
-  <si>
-    <t>Paritilla</t>
-  </si>
-  <si>
-    <t>Altos de Güera</t>
-  </si>
-  <si>
-    <t>Cañas</t>
-  </si>
-  <si>
-    <t>El Bebedero</t>
-  </si>
-  <si>
-    <t>El Cacao</t>
-  </si>
-  <si>
-    <t>El Cortezo</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>Guánico</t>
-  </si>
-  <si>
-    <t>La Tronosa</t>
-  </si>
-  <si>
-    <t>Cambutal</t>
-  </si>
-  <si>
-    <t>Isla De Cañas</t>
-  </si>
-  <si>
-    <t>La Ensenada</t>
-  </si>
-  <si>
-    <t>La Esmeralda</t>
-  </si>
-  <si>
-    <t>La Guinea</t>
-  </si>
-  <si>
-    <t>Pedro González</t>
-  </si>
-  <si>
-    <t>Saboga</t>
-  </si>
-  <si>
-    <t>Brujas</t>
-  </si>
-  <si>
-    <t>Gonzalo Vásquez</t>
-  </si>
-  <si>
-    <t>Unión Santeña</t>
-  </si>
-  <si>
-    <t>Pásiga</t>
-  </si>
-  <si>
-    <t>Cañita</t>
-  </si>
-  <si>
-    <t>Chepillo</t>
-  </si>
-  <si>
-    <t>El Llano</t>
-  </si>
-  <si>
-    <t>Las Margaritas</t>
-  </si>
-  <si>
-    <t>Santa Cruz de Chinina</t>
-  </si>
-  <si>
-    <t>Tortí</t>
-  </si>
-  <si>
-    <t>Otoque Occidente</t>
-  </si>
-  <si>
-    <t>Otoque Oriente</t>
-  </si>
-  <si>
-    <t>San Felipe</t>
-  </si>
-  <si>
-    <t>El Chorrillo</t>
-  </si>
-  <si>
-    <t>Calidonia</t>
   </si>
   <si>
     <t>Betania</t>
@@ -3747,18 +3744,10 @@
     </row>
     <row r="2" ht="23.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -30267,4205 +30256,4205 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19">
         <v>0.0</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="19">
         <v>0.041666666666666664</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="19">
         <v>0.08333333333333333</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="19">
         <v>0.125</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="19">
         <v>0.16666666666666666</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="19">
         <v>0.20833333333333334</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="19">
         <v>0.25</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="19">
         <v>0.2916666666666667</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D10" s="19">
         <v>0.3333333333333333</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D11" s="19">
         <v>0.375</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="19">
         <v>0.4166666666666667</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="19">
         <v>0.4583333333333333</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="19">
         <v>0.5</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="19">
         <v>0.5416666666666666</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="19">
         <v>0.5833333333333334</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="19">
         <v>0.625</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="19">
         <v>0.6666666666666666</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="19">
         <v>0.7083333333333334</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="19">
         <v>0.75</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="19">
         <v>0.7916666666666666</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="19">
         <v>0.8333333333333334</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="19">
         <v>0.875</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="19">
         <v>0.9166666666666666</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="19">
         <v>0.9583333333333334</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26" s="20">
         <v>0.9993055555555556</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="F36" s="13"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="F38" s="13"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="F41" s="13"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F44" s="13"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="F45" s="13"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F47" s="13"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="F48" s="13"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="F49" s="13"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F50" s="13"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="F51" s="13"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" s="13"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="F54" s="13"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="F55" s="13"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="F56" s="13"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F57" s="13"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="F59" s="13"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="F60" s="13"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="F62" s="13"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="F63" s="13"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="F64" s="13"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="F65" s="13"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="F66" s="13"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="C72" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="C73" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="C74" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="C75" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="C77" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="C78" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="C79" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="C80" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="C81" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="C82" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="C101" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="C102" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="C103" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="C104" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="C105" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="C106" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="C107" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="C108" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="C109" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="C110" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="C111" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="C112" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="C113" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="C114" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="C115" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="C116" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="C117" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="C118" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="C119" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="C120" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="C121" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="C122" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="C123" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="C124" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="C125" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="C126" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="C127" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="C128" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="C129" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="C130" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="C131" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="C132" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="C133" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="C134" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="C135" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="C136" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="C137" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="C138" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="C139" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="C140" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="C141" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="C142" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="C143" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="C144" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="C145" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="C146" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="C147" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="C148" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="C149" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="C150" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="C151" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="C152" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="C153" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="C154" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="C155" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="C156" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="C157" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="C158" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="C159" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="C160" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="C161" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="C162" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="C163" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="C164" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="C165" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="C166" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="C167" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="C169" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="C170" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="C171" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="C172" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="C173" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="C174" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="C175" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="C176" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="C177" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="C178" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="C179" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="C180" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="C181" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="C182" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="C183" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="C184" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="C185" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="C186" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="C187" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="C188" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="C189" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="C190" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="C191" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="C192" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="C193" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="C194" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="C195" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="C196" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="C197" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="C198" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="C199" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="C200" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="C201" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="C202" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="C203" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="C204" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="C205" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="C206" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E206" s="13"/>
       <c r="F206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="C207" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E207" s="13"/>
       <c r="F207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="C208" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E208" s="13"/>
       <c r="F208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="C209" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E209" s="13"/>
       <c r="F209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="C210" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E210" s="13"/>
       <c r="F210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="C211" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E211" s="13"/>
       <c r="F211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="C212" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="C213" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="C214" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="C215" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="C216" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E216" s="13"/>
       <c r="F216" s="13"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="C217" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E217" s="13"/>
       <c r="F217" s="13"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="C218" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="C219" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E219" s="13"/>
       <c r="F219" s="13"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="C220" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E220" s="13"/>
       <c r="F220" s="13"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="C221" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E221" s="13"/>
       <c r="F221" s="13"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="C222" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="C223" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="C224" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="C225" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="C226" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="C227" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E227" s="13"/>
       <c r="F227" s="13"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="C228" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="C229" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E229" s="13"/>
       <c r="F229" s="13"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="C230" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E230" s="13"/>
       <c r="F230" s="13"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="C231" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E231" s="13"/>
       <c r="F231" s="13"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="C232" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E232" s="13"/>
       <c r="F232" s="13"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
       <c r="C233" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E233" s="13"/>
       <c r="F233" s="13"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="C234" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E234" s="13"/>
       <c r="F234" s="13"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
       <c r="C235" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E235" s="13"/>
       <c r="F235" s="13"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="C236" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E236" s="13"/>
       <c r="F236" s="13"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="C237" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E237" s="13"/>
       <c r="F237" s="13"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="C238" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E238" s="13"/>
       <c r="F238" s="13"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="C239" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E239" s="13"/>
       <c r="F239" s="13"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="C240" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E240" s="13"/>
       <c r="F240" s="13"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="C241" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="C242" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="C243" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E243" s="13"/>
       <c r="F243" s="13"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="C244" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E244" s="13"/>
       <c r="F244" s="13"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="C245" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E245" s="13"/>
       <c r="F245" s="13"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
       <c r="C246" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="C247" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E247" s="13"/>
       <c r="F247" s="13"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="C248" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
       <c r="C249" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E249" s="13"/>
       <c r="F249" s="13"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="C250" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E250" s="13"/>
       <c r="F250" s="13"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="C251" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E251" s="13"/>
       <c r="F251" s="13"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
       <c r="C252" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E252" s="13"/>
       <c r="F252" s="13"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="C253" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E253" s="13"/>
       <c r="F253" s="13"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="C254" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="C255" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E255" s="13"/>
       <c r="F255" s="13"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
       <c r="C256" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="C257" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
       <c r="C258" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="C259" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
       <c r="C260" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="C261" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
       <c r="C262" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="C263" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
       <c r="C264" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E264" s="13"/>
       <c r="F264" s="13"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="C265" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="C266" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
       <c r="C267" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E267" s="13"/>
       <c r="F267" s="13"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="C268" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="C269" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
       <c r="C270" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
       <c r="C271" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="C272" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="C273" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="C274" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="C275" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="C276" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
       <c r="C277" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="C278" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="C279" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E279" s="13"/>
       <c r="F279" s="13"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="C280" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E280" s="13"/>
       <c r="F280" s="13"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="C281" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E281" s="13"/>
       <c r="F281" s="13"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="C282" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E282" s="13"/>
       <c r="F282" s="13"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="C283" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="C284" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="C285" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E285" s="13"/>
       <c r="F285" s="13"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
       <c r="C286" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="C287" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
       <c r="C288" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E288" s="13"/>
       <c r="F288" s="13"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="C289" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E289" s="13"/>
       <c r="F289" s="13"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
       <c r="C290" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E290" s="13"/>
       <c r="F290" s="13"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="C291" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E291" s="13"/>
       <c r="F291" s="13"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="C292" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E292" s="13"/>
       <c r="F292" s="13"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
       <c r="C293" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E293" s="13"/>
       <c r="F293" s="13"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="C294" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E294" s="13"/>
       <c r="F294" s="13"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="C295" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E295" s="13"/>
       <c r="F295" s="13"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="C296" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E296" s="13"/>
       <c r="F296" s="13"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="C297" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E297" s="13"/>
       <c r="F297" s="13"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="C298" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E298" s="13"/>
       <c r="F298" s="13"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="C299" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E299" s="13"/>
       <c r="F299" s="13"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="C300" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E300" s="13"/>
       <c r="F300" s="13"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="C301" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E301" s="13"/>
       <c r="F301" s="13"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="C302" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E302" s="13"/>
       <c r="F302" s="13"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="C303" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E303" s="13"/>
       <c r="F303" s="13"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
       <c r="C304" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E304" s="13"/>
       <c r="F304" s="13"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="C305" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E305" s="13"/>
       <c r="F305" s="13"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
       <c r="C306" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E306" s="13"/>
       <c r="F306" s="13"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="C307" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E307" s="13"/>
       <c r="F307" s="13"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="C308" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E308" s="13"/>
       <c r="F308" s="13"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="C309" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E309" s="13"/>
       <c r="F309" s="13"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="C310" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E310" s="13"/>
       <c r="F310" s="13"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="C311" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E311" s="13"/>
       <c r="F311" s="13"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="C312" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E312" s="13"/>
       <c r="F312" s="13"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
       <c r="C313" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E313" s="13"/>
       <c r="F313" s="13"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
       <c r="C314" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E314" s="13"/>
       <c r="F314" s="13"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
       <c r="C315" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E315" s="13"/>
       <c r="F315" s="13"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="C316" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E316" s="13"/>
       <c r="F316" s="13"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="C317" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E317" s="13"/>
       <c r="F317" s="13"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="C318" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E318" s="13"/>
       <c r="F318" s="13"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
       <c r="C319" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E319" s="13"/>
       <c r="F319" s="13"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
       <c r="C320" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E320" s="13"/>
       <c r="F320" s="13"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="C321" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E321" s="13"/>
       <c r="F321" s="13"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
       <c r="C322" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E322" s="13"/>
       <c r="F322" s="13"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="C323" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E323" s="13"/>
       <c r="F323" s="13"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
       <c r="C324" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E324" s="13"/>
       <c r="F324" s="13"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="C325" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E325" s="13"/>
       <c r="F325" s="13"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="C326" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E326" s="13"/>
       <c r="F326" s="13"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="C327" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E327" s="13"/>
       <c r="F327" s="13"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="C328" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E328" s="13"/>
       <c r="F328" s="13"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="C329" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E329" s="13"/>
       <c r="F329" s="13"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
       <c r="C330" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E330" s="13"/>
       <c r="F330" s="13"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
       <c r="C331" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E331" s="13"/>
       <c r="F331" s="13"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="C332" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E332" s="13"/>
       <c r="F332" s="13"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="C333" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E333" s="13"/>
       <c r="F333" s="13"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="C334" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E334" s="13"/>
       <c r="F334" s="13"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
       <c r="C335" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E335" s="13"/>
       <c r="F335" s="13"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
       <c r="C336" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E336" s="13"/>
       <c r="F336" s="13"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
       <c r="C337" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E337" s="13"/>
       <c r="F337" s="13"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="C338" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E338" s="13"/>
       <c r="F338" s="13"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="C339" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E339" s="13"/>
       <c r="F339" s="13"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="C340" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E340" s="13"/>
       <c r="F340" s="13"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="C341" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E341" s="13"/>
       <c r="F341" s="13"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="C342" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E342" s="13"/>
       <c r="F342" s="13"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="C343" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E343" s="13"/>
       <c r="F343" s="13"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="C344" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E344" s="13"/>
       <c r="F344" s="13"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="C345" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E345" s="13"/>
       <c r="F345" s="13"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="C346" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E346" s="13"/>
       <c r="F346" s="13"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="C347" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E347" s="13"/>
       <c r="F347" s="13"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="C348" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E348" s="13"/>
       <c r="F348" s="13"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
       <c r="C349" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E349" s="13"/>
       <c r="F349" s="13"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
       <c r="C350" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E350" s="13"/>
       <c r="F350" s="13"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
       <c r="C351" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E351" s="13"/>
       <c r="F351" s="13"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
       <c r="C352" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E352" s="13"/>
       <c r="F352" s="13"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
       <c r="C353" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E353" s="13"/>
       <c r="F353" s="13"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
       <c r="C354" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E354" s="13"/>
       <c r="F354" s="13"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
       <c r="C355" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E355" s="13"/>
       <c r="F355" s="13"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
       <c r="C356" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E356" s="13"/>
       <c r="F356" s="13"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
       <c r="C357" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E357" s="13"/>
       <c r="F357" s="13"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
       <c r="C358" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E358" s="13"/>
       <c r="F358" s="13"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
       <c r="C359" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E359" s="13"/>
       <c r="F359" s="13"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
       <c r="C360" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E360" s="13"/>
       <c r="F360" s="13"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
       <c r="C361" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E361" s="13"/>
       <c r="F361" s="13"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
       <c r="C362" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E362" s="13"/>
       <c r="F362" s="13"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
       <c r="C363" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E363" s="13"/>
       <c r="F363" s="13"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
       <c r="C364" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E364" s="13"/>
       <c r="F364" s="13"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
       <c r="C365" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E365" s="13"/>
       <c r="F365" s="13"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
       <c r="C366" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E366" s="13"/>
       <c r="F366" s="13"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
       <c r="C367" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E367" s="13"/>
       <c r="F367" s="13"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
       <c r="C368" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E368" s="13"/>
       <c r="F368" s="13"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
       <c r="C369" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E369" s="13"/>
       <c r="F369" s="13"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
       <c r="C370" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E370" s="13"/>
       <c r="F370" s="13"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
       <c r="C371" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E371" s="13"/>
       <c r="F371" s="13"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
       <c r="C372" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E372" s="13"/>
       <c r="F372" s="13"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
       <c r="C373" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E373" s="13"/>
       <c r="F373" s="13"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
       <c r="C374" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E374" s="13"/>
       <c r="F374" s="13"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
       <c r="C375" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E375" s="13"/>
       <c r="F375" s="13"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
       <c r="C376" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E376" s="13"/>
       <c r="F376" s="13"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
       <c r="C377" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E377" s="13"/>
       <c r="F377" s="13"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
       <c r="C378" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E378" s="13"/>
       <c r="F378" s="13"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
       <c r="C379" s="1" t="s">
-        <v>31</v>
+        <v>509</v>
       </c>
       <c r="E379" s="13"/>
       <c r="F379" s="13"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
       <c r="C380" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E380" s="13"/>
       <c r="F380" s="13"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
       <c r="C381" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E381" s="13"/>
       <c r="F381" s="13"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
       <c r="C382" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E382" s="13"/>
       <c r="F382" s="13"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
       <c r="C383" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E383" s="13"/>
       <c r="F383" s="13"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
       <c r="C384" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E384" s="13"/>
       <c r="F384" s="13"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
       <c r="C385" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E385" s="13"/>
       <c r="F385" s="13"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
       <c r="C386" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E386" s="13"/>
       <c r="F386" s="13"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
       <c r="C387" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E387" s="13"/>
       <c r="F387" s="13"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
       <c r="C388" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E388" s="13"/>
       <c r="F388" s="13"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
       <c r="C389" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E389" s="13"/>
       <c r="F389" s="13"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
       <c r="C390" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
       <c r="C391" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E391" s="13"/>
       <c r="F391" s="13"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
       <c r="C392" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E392" s="13"/>
       <c r="F392" s="13"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
       <c r="C393" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E393" s="13"/>
       <c r="F393" s="13"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
       <c r="C394" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E394" s="13"/>
       <c r="F394" s="13"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
       <c r="C395" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E395" s="13"/>
       <c r="F395" s="13"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
       <c r="C396" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E396" s="13"/>
       <c r="F396" s="13"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
       <c r="C397" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E397" s="13"/>
       <c r="F397" s="13"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
       <c r="C398" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E398" s="13"/>
       <c r="F398" s="13"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
       <c r="C399" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E399" s="13"/>
       <c r="F399" s="13"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="C400" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E400" s="13"/>
       <c r="F400" s="13"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
       <c r="C401" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E401" s="13"/>
       <c r="F401" s="13"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
       <c r="C402" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E402" s="13"/>
       <c r="F402" s="13"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
       <c r="C403" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E403" s="13"/>
       <c r="F403" s="13"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
       <c r="C404" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E404" s="13"/>
       <c r="F404" s="13"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
       <c r="C405" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E405" s="13"/>
       <c r="F405" s="13"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
       <c r="C406" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E406" s="13"/>
       <c r="F406" s="13"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
       <c r="C407" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E407" s="13"/>
       <c r="F407" s="13"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
       <c r="C408" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E408" s="13"/>
       <c r="F408" s="13"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
       <c r="C409" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E409" s="13"/>
       <c r="F409" s="13"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
       <c r="C410" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E410" s="13"/>
       <c r="F410" s="13"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="C411" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E411" s="13"/>
       <c r="F411" s="13"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="C412" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E412" s="13"/>
       <c r="F412" s="13"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
       <c r="C413" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E413" s="13"/>
       <c r="F413" s="13"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
       <c r="C414" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E414" s="13"/>
       <c r="F414" s="13"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
       <c r="C415" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E415" s="13"/>
       <c r="F415" s="13"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
       <c r="C416" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E416" s="13"/>
       <c r="F416" s="13"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
       <c r="C417" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E417" s="13"/>
       <c r="F417" s="13"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
       <c r="C418" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E418" s="13"/>
       <c r="F418" s="13"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
       <c r="C419" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E419" s="13"/>
       <c r="F419" s="13"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
       <c r="C420" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E420" s="13"/>
       <c r="F420" s="13"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
       <c r="C421" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E421" s="13"/>
       <c r="F421" s="13"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
       <c r="C422" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E422" s="13"/>
       <c r="F422" s="13"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
       <c r="C423" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E423" s="13"/>
       <c r="F423" s="13"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
       <c r="C424" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E424" s="13"/>
       <c r="F424" s="13"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
       <c r="C425" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E425" s="13"/>
       <c r="F425" s="13"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
       <c r="C426" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E426" s="13"/>
       <c r="F426" s="13"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
       <c r="C427" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E427" s="13"/>
       <c r="F427" s="13"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="C428" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E428" s="13"/>
       <c r="F428" s="13"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
       <c r="C429" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E429" s="13"/>
       <c r="F429" s="13"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
       <c r="C430" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E430" s="13"/>
       <c r="F430" s="13"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
       <c r="C431" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E431" s="13"/>
       <c r="F431" s="13"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
       <c r="C432" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E432" s="13"/>
       <c r="F432" s="13"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
       <c r="C433" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E433" s="13"/>
       <c r="F433" s="13"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
       <c r="C434" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E434" s="13"/>
       <c r="F434" s="13"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
       <c r="C435" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E435" s="13"/>
       <c r="F435" s="13"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
       <c r="C436" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E436" s="13"/>
       <c r="F436" s="13"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
       <c r="C437" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E437" s="13"/>
       <c r="F437" s="13"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
       <c r="C438" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E438" s="13"/>
       <c r="F438" s="13"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
       <c r="C439" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E439" s="13"/>
       <c r="F439" s="13"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
       <c r="C440" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E440" s="13"/>
       <c r="F440" s="13"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
       <c r="C441" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E441" s="13"/>
       <c r="F441" s="13"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
       <c r="C442" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E442" s="13"/>
       <c r="F442" s="13"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
       <c r="C443" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E443" s="13"/>
       <c r="F443" s="13"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
       <c r="C444" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E444" s="13"/>
       <c r="F444" s="13"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
       <c r="C445" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E445" s="13"/>
       <c r="F445" s="13"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
       <c r="C446" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E446" s="13"/>
       <c r="F446" s="13"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
       <c r="C447" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E447" s="13"/>
       <c r="F447" s="13"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
       <c r="C448" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E448" s="13"/>
       <c r="F448" s="13"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
       <c r="C449" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E449" s="13"/>
       <c r="F449" s="13"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
       <c r="C450" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E450" s="13"/>
       <c r="F450" s="13"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
       <c r="C451" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E451" s="13"/>
       <c r="F451" s="13"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
       <c r="C452" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E452" s="13"/>
       <c r="F452" s="13"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
       <c r="C453" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E453" s="13"/>
       <c r="F453" s="13"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
       <c r="C454" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E454" s="13"/>
       <c r="F454" s="13"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
       <c r="C455" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E455" s="13"/>
       <c r="F455" s="13"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
       <c r="C456" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E456" s="13"/>
       <c r="F456" s="13"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
       <c r="C457" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E457" s="13"/>
       <c r="F457" s="13"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
       <c r="C458" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E458" s="13"/>
       <c r="F458" s="13"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
       <c r="C459" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E459" s="13"/>
       <c r="F459" s="13"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
       <c r="C460" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E460" s="13"/>
       <c r="F460" s="13"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
       <c r="C461" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E461" s="13"/>
       <c r="F461" s="13"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
       <c r="C462" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E462" s="13"/>
       <c r="F462" s="13"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
       <c r="C463" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E463" s="13"/>
       <c r="F463" s="13"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
       <c r="C464" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E464" s="13"/>
       <c r="F464" s="13"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
       <c r="C465" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E465" s="13"/>
       <c r="F465" s="13"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
       <c r="C466" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E466" s="13"/>
       <c r="F466" s="13"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
       <c r="C467" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E467" s="13"/>
       <c r="F467" s="13"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
       <c r="C468" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E468" s="13"/>
       <c r="F468" s="13"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
       <c r="C469" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E469" s="13"/>
       <c r="F469" s="13"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
       <c r="C470" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E470" s="13"/>
       <c r="F470" s="13"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
       <c r="C471" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E471" s="13"/>
       <c r="F471" s="13"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
       <c r="C472" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E472" s="13"/>
       <c r="F472" s="13"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
       <c r="C473" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E473" s="13"/>
       <c r="F473" s="13"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
       <c r="C474" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E474" s="13"/>
       <c r="F474" s="13"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
       <c r="C475" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E475" s="13"/>
       <c r="F475" s="13"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="C476" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E476" s="13"/>
       <c r="F476" s="13"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
       <c r="C477" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E477" s="13"/>
       <c r="F477" s="13"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
       <c r="C478" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E478" s="13"/>
       <c r="F478" s="13"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
       <c r="C479" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E479" s="13"/>
       <c r="F479" s="13"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
       <c r="C480" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E480" s="13"/>
       <c r="F480" s="13"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
       <c r="C481" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E481" s="13"/>
       <c r="F481" s="13"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
       <c r="C482" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E482" s="13"/>
       <c r="F482" s="13"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
       <c r="C483" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E483" s="13"/>
       <c r="F483" s="13"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
       <c r="C484" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E484" s="13"/>
       <c r="F484" s="13"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
       <c r="C485" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E485" s="13"/>
       <c r="F485" s="13"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
       <c r="C486" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E486" s="13"/>
       <c r="F486" s="13"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
       <c r="C487" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E487" s="13"/>
       <c r="F487" s="13"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
       <c r="C488" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E488" s="13"/>
       <c r="F488" s="13"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
       <c r="C489" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E489" s="13"/>
       <c r="F489" s="13"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
       <c r="C490" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E490" s="13"/>
       <c r="F490" s="13"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
       <c r="C491" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E491" s="13"/>
       <c r="F491" s="13"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
       <c r="C492" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E492" s="13"/>
       <c r="F492" s="13"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
       <c r="C493" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E493" s="13"/>
       <c r="F493" s="13"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
       <c r="C494" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E494" s="13"/>
       <c r="F494" s="13"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
       <c r="C495" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E495" s="13"/>
       <c r="F495" s="13"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
       <c r="C496" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E496" s="13"/>
       <c r="F496" s="13"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
       <c r="C497" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E497" s="13"/>
       <c r="F497" s="13"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
       <c r="C498" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E498" s="13"/>
       <c r="F498" s="13"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
       <c r="C499" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E499" s="13"/>
       <c r="F499" s="13"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
       <c r="C500" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E500" s="13"/>
       <c r="F500" s="13"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
       <c r="C501" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E501" s="13"/>
       <c r="F501" s="13"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
       <c r="C502" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E502" s="13"/>
       <c r="F502" s="13"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
       <c r="C503" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E503" s="13"/>
       <c r="F503" s="13"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
       <c r="C504" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E504" s="13"/>
       <c r="F504" s="13"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
       <c r="C505" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E505" s="13"/>
       <c r="F505" s="13"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
       <c r="C506" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E506" s="13"/>
       <c r="F506" s="13"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
       <c r="C507" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E507" s="13"/>
       <c r="F507" s="13"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
       <c r="C508" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E508" s="13"/>
       <c r="F508" s="13"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
       <c r="C509" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E509" s="13"/>
       <c r="F509" s="13"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
       <c r="C510" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E510" s="13"/>
       <c r="F510" s="13"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
       <c r="C511" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E511" s="13"/>
       <c r="F511" s="13"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
       <c r="C512" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E512" s="13"/>
       <c r="F512" s="13"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
       <c r="C513" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E513" s="13"/>
       <c r="F513" s="13"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
       <c r="C514" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E514" s="13"/>
       <c r="F514" s="13"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
       <c r="C515" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E515" s="13"/>
       <c r="F515" s="13"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
       <c r="C516" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E516" s="13"/>
       <c r="F516" s="13"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
       <c r="C517" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E517" s="13"/>
       <c r="F517" s="13"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
       <c r="C518" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E518" s="13"/>
       <c r="F518" s="13"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
       <c r="C519" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E519" s="13"/>
       <c r="F519" s="13"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
       <c r="C520" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E520" s="13"/>
       <c r="F520" s="13"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
       <c r="C521" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E521" s="13"/>
       <c r="F521" s="13"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
       <c r="C522" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E522" s="13"/>
       <c r="F522" s="13"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
       <c r="C523" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E523" s="13"/>
       <c r="F523" s="13"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
       <c r="C524" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E524" s="13"/>
       <c r="F524" s="13"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
       <c r="C525" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E525" s="13"/>
       <c r="F525" s="13"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
       <c r="C526" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E526" s="13"/>
       <c r="F526" s="13"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
       <c r="C527" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E527" s="13"/>
       <c r="F527" s="13"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
       <c r="C528" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E528" s="13"/>
       <c r="F528" s="13"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
       <c r="C529" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E529" s="13"/>
       <c r="F529" s="13"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
       <c r="C530" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E530" s="13"/>
       <c r="F530" s="13"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
       <c r="C531" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E531" s="13"/>
       <c r="F531" s="13"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
       <c r="C532" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E532" s="13"/>
       <c r="F532" s="13"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
       <c r="C533" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E533" s="13"/>
       <c r="F533" s="13"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
       <c r="C534" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E534" s="13"/>
       <c r="F534" s="13"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
       <c r="C535" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E535" s="13"/>
       <c r="F535" s="13"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
       <c r="C536" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E536" s="13"/>
       <c r="F536" s="13"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
       <c r="C537" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E537" s="13"/>
       <c r="F537" s="13"/>
